--- a/Code/Results/Cases/Case_5_247/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_247/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.472591500528495</v>
+        <v>0.9202686041625157</v>
       </c>
       <c r="C2">
-        <v>0.7030242329472856</v>
+        <v>0.2312851940432097</v>
       </c>
       <c r="D2">
-        <v>0.1974744981815917</v>
+        <v>0.2216154181053156</v>
       </c>
       <c r="E2">
-        <v>0.1714492826370488</v>
+        <v>0.173995006164489</v>
       </c>
       <c r="F2">
-        <v>0.806714196289505</v>
+        <v>1.158484340464028</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.2070196427451165</v>
+        <v>0.4743025055241112</v>
       </c>
       <c r="J2">
-        <v>0.1924722299246184</v>
+        <v>0.1814400276531032</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7093006283513219</v>
+        <v>1.002392765118174</v>
       </c>
       <c r="O2">
-        <v>1.71554236015325</v>
+        <v>2.593177007097438</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.149771234905359</v>
+        <v>0.8229987116431516</v>
       </c>
       <c r="C3">
-        <v>0.6118296152638436</v>
+        <v>0.2035736324707784</v>
       </c>
       <c r="D3">
-        <v>0.1764909013984237</v>
+        <v>0.2168581183874068</v>
       </c>
       <c r="E3">
-        <v>0.1529164622772612</v>
+        <v>0.1700559920835083</v>
       </c>
       <c r="F3">
-        <v>0.7444107525819916</v>
+        <v>1.152771200007365</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.2065455600841801</v>
+        <v>0.4795121132207214</v>
       </c>
       <c r="J3">
-        <v>0.1713459011992811</v>
+        <v>0.1771225843945246</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7141055539563652</v>
+        <v>1.006460705725544</v>
       </c>
       <c r="O3">
-        <v>1.597057263378218</v>
+        <v>2.588672475193846</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.951826409221724</v>
+        <v>0.7632777456283009</v>
       </c>
       <c r="C4">
-        <v>0.5559082506057678</v>
+        <v>0.18652978349877</v>
       </c>
       <c r="D4">
-        <v>0.1637456157404387</v>
+        <v>0.2140201439054294</v>
       </c>
       <c r="E4">
-        <v>0.1417155222863755</v>
+        <v>0.1677234901444855</v>
       </c>
       <c r="F4">
-        <v>0.7077597634083617</v>
+        <v>1.150013388387933</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.206969451718038</v>
+        <v>0.4830496188176809</v>
       </c>
       <c r="J4">
-        <v>0.1586274743204186</v>
+        <v>0.1745782619095451</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7179611671304258</v>
+        <v>1.0093724869295</v>
       </c>
       <c r="O4">
-        <v>1.528373191054584</v>
+        <v>2.587734933961769</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.871203401442699</v>
+        <v>0.7389432360139949</v>
       </c>
       <c r="C5">
-        <v>0.5331297059309748</v>
+        <v>0.1795773785316612</v>
       </c>
       <c r="D5">
-        <v>0.1585838551214778</v>
+        <v>0.2128846190596363</v>
       </c>
       <c r="E5">
-        <v>0.1371921620600638</v>
+        <v>0.1667946530482389</v>
       </c>
       <c r="F5">
-        <v>0.6932008870713702</v>
+        <v>1.149078023406872</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.2073125610099069</v>
+        <v>0.4845762209298741</v>
       </c>
       <c r="J5">
-        <v>0.1535028838739336</v>
+        <v>0.1735682267089018</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7197522390552535</v>
+        <v>1.010663349112768</v>
       </c>
       <c r="O5">
-        <v>1.50134006165095</v>
+        <v>2.587811949816768</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.857817759106808</v>
+        <v>0.7349026898970124</v>
       </c>
       <c r="C6">
-        <v>0.5293477078006106</v>
+        <v>0.1784225307833083</v>
       </c>
       <c r="D6">
-        <v>0.1577286043215764</v>
+        <v>0.2126973355315442</v>
       </c>
       <c r="E6">
-        <v>0.1364434398829033</v>
+        <v>0.1666417305556642</v>
       </c>
       <c r="F6">
-        <v>0.6908053990981884</v>
+        <v>1.148934085324953</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.2073795574685349</v>
+        <v>0.4848348438394687</v>
       </c>
       <c r="J6">
-        <v>0.1526553166425799</v>
+        <v>0.1734021293203085</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7200627060173801</v>
+        <v>1.010883999664891</v>
       </c>
       <c r="O6">
-        <v>1.496907109624374</v>
+        <v>2.58785244577922</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.950738966214942</v>
+        <v>0.7629495507727597</v>
       </c>
       <c r="C7">
-        <v>0.5556010218992355</v>
+        <v>0.1864360483954215</v>
       </c>
       <c r="D7">
-        <v>0.163675876310279</v>
+        <v>0.2140047447752238</v>
       </c>
       <c r="E7">
-        <v>0.141654356966292</v>
+        <v>0.1677108757105259</v>
       </c>
       <c r="F7">
-        <v>0.7075619261217128</v>
+        <v>1.150000010836536</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.2069734012924052</v>
+        <v>0.48306986298509</v>
       </c>
       <c r="J7">
-        <v>0.1585581332878903</v>
+        <v>0.1745645317343403</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.717984441838297</v>
+        <v>1.009389473461695</v>
       </c>
       <c r="O7">
-        <v>1.528004826351548</v>
+        <v>2.58773411474138</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.361210968055616</v>
+        <v>0.886730149374273</v>
       </c>
       <c r="C8">
-        <v>0.6715600469903222</v>
+        <v>0.2217364363929164</v>
       </c>
       <c r="D8">
-        <v>0.1902087973258659</v>
+        <v>0.2199579240351284</v>
       </c>
       <c r="E8">
-        <v>0.1650198557207858</v>
+        <v>0.172618989144631</v>
       </c>
       <c r="F8">
-        <v>0.7848827201472091</v>
+        <v>1.156358676151896</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.2067019689245555</v>
+        <v>0.4760283728502941</v>
       </c>
       <c r="J8">
-        <v>0.1851319635854409</v>
+        <v>0.1799292395575947</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7107646344913547</v>
+        <v>1.003709555393868</v>
       </c>
       <c r="O8">
-        <v>1.673803712319852</v>
+        <v>2.591243982878581</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.169585284863103</v>
+        <v>1.129435424059523</v>
       </c>
       <c r="C9">
-        <v>0.8999476163918985</v>
+        <v>0.2907193810294757</v>
       </c>
       <c r="D9">
-        <v>0.2434792539970516</v>
+        <v>0.2322874718310004</v>
       </c>
       <c r="E9">
-        <v>0.2124346112700835</v>
+        <v>0.1829259138570762</v>
       </c>
       <c r="F9">
-        <v>0.9505087155736902</v>
+        <v>1.174788671659798</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.2122918676744128</v>
+        <v>0.4649149978424667</v>
       </c>
       <c r="J9">
-        <v>0.2395139809641051</v>
+        <v>0.1912965171573262</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7041641081654149</v>
+        <v>0.995849766821209</v>
       </c>
       <c r="O9">
-        <v>1.995163757912763</v>
+        <v>2.612667522433043</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.767615008124665</v>
+        <v>1.307680207747296</v>
       </c>
       <c r="C10">
-        <v>1.068991080617565</v>
+        <v>0.3412427635975064</v>
       </c>
       <c r="D10">
-        <v>0.2835823623187395</v>
+        <v>0.2417421073336783</v>
       </c>
       <c r="E10">
-        <v>0.2485137298703748</v>
+        <v>0.1909142272174336</v>
       </c>
       <c r="F10">
-        <v>1.082631038887698</v>
+        <v>1.191979143481916</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.2207945747615767</v>
+        <v>0.4584025110626868</v>
       </c>
       <c r="J10">
-        <v>0.2812449866833759</v>
+        <v>0.2001673305943257</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.704476643946677</v>
+        <v>0.9920658500439572</v>
       </c>
       <c r="O10">
-        <v>2.257616983637405</v>
+        <v>2.637325798671242</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.041060671006392</v>
+        <v>1.388742744771719</v>
       </c>
       <c r="C11">
-        <v>1.146321552324821</v>
+        <v>0.3641906446379153</v>
       </c>
       <c r="D11">
-        <v>0.3020864652176698</v>
+        <v>0.2461286260973594</v>
       </c>
       <c r="E11">
-        <v>0.2652624082307184</v>
+        <v>0.1946386679148517</v>
       </c>
       <c r="F11">
-        <v>1.145460105431155</v>
+        <v>1.200595791623613</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.2257757961358102</v>
+        <v>0.4558007153939982</v>
       </c>
       <c r="J11">
-        <v>0.3007098659214194</v>
+        <v>0.2043163326977293</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7058725412174454</v>
+        <v>0.9907751797901483</v>
       </c>
       <c r="O11">
-        <v>2.383873914777212</v>
+        <v>2.650492070846184</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.144852201873277</v>
+        <v>1.419434611331553</v>
       </c>
       <c r="C12">
-        <v>1.1756807515319</v>
+        <v>0.3728750208108522</v>
       </c>
       <c r="D12">
-        <v>0.3091355117832251</v>
+        <v>0.2478019101151716</v>
       </c>
       <c r="E12">
-        <v>0.2716588823668147</v>
+        <v>0.1960620151282697</v>
       </c>
       <c r="F12">
-        <v>1.169684983661426</v>
+        <v>1.203973474671258</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.2278364716176959</v>
+        <v>0.4548675317125586</v>
       </c>
       <c r="J12">
-        <v>0.3081584240452173</v>
+        <v>0.2059038214718498</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7065933963099553</v>
+        <v>0.9903482356929914</v>
       </c>
       <c r="O12">
-        <v>2.432774138229206</v>
+        <v>2.655758922751204</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.122487290112986</v>
+        <v>1.412824805813614</v>
       </c>
       <c r="C13">
-        <v>1.169354118039337</v>
+        <v>0.3710049353032332</v>
       </c>
       <c r="D13">
-        <v>0.3076154339482429</v>
+        <v>0.2474409972292761</v>
       </c>
       <c r="E13">
-        <v>0.2702787834726692</v>
+        <v>0.1957548949851642</v>
       </c>
       <c r="F13">
-        <v>1.164447784962505</v>
+        <v>1.203240923791597</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.2273846726352566</v>
+        <v>0.4550661912411513</v>
       </c>
       <c r="J13">
-        <v>0.306550649547205</v>
+        <v>0.2055611999136033</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7064293964826334</v>
+        <v>0.9904374388548263</v>
       </c>
       <c r="O13">
-        <v>2.42219243233211</v>
+        <v>2.654612098670441</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.049594524750205</v>
+        <v>1.391267887626498</v>
       </c>
       <c r="C14">
-        <v>1.14873534846015</v>
+        <v>0.3649052257147787</v>
       </c>
       <c r="D14">
-        <v>0.3026655273608156</v>
+        <v>0.246266044147518</v>
       </c>
       <c r="E14">
-        <v>0.2657875307277919</v>
+        <v>0.1947555075551151</v>
       </c>
       <c r="F14">
-        <v>1.147444179645404</v>
+        <v>1.200871374868498</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.2259417482197037</v>
+        <v>0.4557228974114906</v>
       </c>
       <c r="J14">
-        <v>0.3013210567161053</v>
+        <v>0.2044466085696257</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7059279215458361</v>
+        <v>0.9907388168662408</v>
       </c>
       <c r="O14">
-        <v>2.387874517055508</v>
+        <v>2.650919740319353</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.004978645370159</v>
+        <v>1.378062985703991</v>
       </c>
       <c r="C15">
-        <v>1.136116060776317</v>
+        <v>0.3611682511823915</v>
       </c>
       <c r="D15">
-        <v>0.2996391660084612</v>
+        <v>0.2455479379304677</v>
       </c>
       <c r="E15">
-        <v>0.2630437353556374</v>
+        <v>0.1941450435770733</v>
       </c>
       <c r="F15">
-        <v>1.137086621575705</v>
+        <v>1.199434906690925</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.2250810696875227</v>
+        <v>0.4561319340344205</v>
       </c>
       <c r="J15">
-        <v>0.2981281517677274</v>
+        <v>0.2037660190387527</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7056461617171408</v>
+        <v>0.9909314648552936</v>
       </c>
       <c r="O15">
-        <v>2.366998853364748</v>
+        <v>2.648694691369883</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.74977638641576</v>
+        <v>1.302382002015122</v>
       </c>
       <c r="C16">
-        <v>1.063947187297316</v>
+        <v>0.3397423187672644</v>
       </c>
       <c r="D16">
-        <v>0.2823786970011497</v>
+        <v>0.2414571512294117</v>
       </c>
       <c r="E16">
-        <v>0.2474264114886324</v>
+        <v>0.1906726447961375</v>
       </c>
       <c r="F16">
-        <v>1.078583287880875</v>
+        <v>1.191432071721763</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.2204926411782111</v>
+        <v>0.4585798196457489</v>
       </c>
       <c r="J16">
-        <v>0.2799833000042042</v>
+        <v>0.1998984710504175</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7044116510321317</v>
+        <v>0.9921588536034562</v>
       </c>
       <c r="O16">
-        <v>2.249512506158936</v>
+        <v>2.636504640428456</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.593605437780809</v>
+        <v>1.255947413905119</v>
       </c>
       <c r="C17">
-        <v>1.019793899805819</v>
+        <v>0.3265888439129014</v>
       </c>
       <c r="D17">
-        <v>0.2718598382897284</v>
+        <v>0.2389694293152189</v>
       </c>
       <c r="E17">
-        <v>0.2379357452167099</v>
+        <v>0.1885656000786184</v>
       </c>
       <c r="F17">
-        <v>1.043419675598557</v>
+        <v>1.186726761655933</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.2179727771379802</v>
+        <v>0.4601740488354764</v>
       </c>
       <c r="J17">
-        <v>0.2689810650406628</v>
+        <v>0.1975549666486103</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7039836795928665</v>
+        <v>0.9930220282897437</v>
       </c>
       <c r="O17">
-        <v>2.17926713821069</v>
+        <v>2.629526214108353</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.503908966906238</v>
+        <v>1.22923750050893</v>
       </c>
       <c r="C18">
-        <v>0.9944378421940314</v>
+        <v>0.3190199987059543</v>
       </c>
       <c r="D18">
-        <v>0.2658339512064458</v>
+        <v>0.2375466164435522</v>
       </c>
       <c r="E18">
-        <v>0.2325082285866813</v>
+        <v>0.1873622055931534</v>
       </c>
       <c r="F18">
-        <v>1.023448447201929</v>
+        <v>1.184095361538581</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.2166272895246379</v>
+        <v>0.4611249535400361</v>
       </c>
       <c r="J18">
-        <v>0.2626976233811433</v>
+        <v>0.1962177390384028</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7038547613807253</v>
+        <v>0.993559045553809</v>
       </c>
       <c r="O18">
-        <v>2.139503515999564</v>
+        <v>2.625695818934162</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.473560191887827</v>
+        <v>1.220193694058025</v>
       </c>
       <c r="C19">
-        <v>0.9858591441388</v>
+        <v>0.3164567604062256</v>
       </c>
       <c r="D19">
-        <v>0.26379773100129</v>
+        <v>0.2370662635925669</v>
       </c>
       <c r="E19">
-        <v>0.2306757654906235</v>
+        <v>0.1869562215739364</v>
       </c>
       <c r="F19">
-        <v>1.01672895417218</v>
+        <v>1.183217284922009</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.2161891519221655</v>
+        <v>0.4614527382894025</v>
       </c>
       <c r="J19">
-        <v>0.2605775983876555</v>
+        <v>0.1957668130865926</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7038308969262488</v>
+        <v>0.9937478373309006</v>
       </c>
       <c r="O19">
-        <v>2.126147112342153</v>
+        <v>2.62443038981931</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.610216462362871</v>
+        <v>1.260890670250774</v>
       </c>
       <c r="C20">
-        <v>1.024489883465179</v>
+        <v>0.3279893996150633</v>
       </c>
       <c r="D20">
-        <v>0.2729770447703004</v>
+        <v>0.2392334182016072</v>
       </c>
       <c r="E20">
-        <v>0.23894276675464</v>
+        <v>0.1887890168460871</v>
       </c>
       <c r="F20">
-        <v>1.04713633306126</v>
+        <v>1.187219889452749</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.2182301704279048</v>
+        <v>0.4600008257883097</v>
       </c>
       <c r="J20">
-        <v>0.2701475810611385</v>
+        <v>0.1978033297983899</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7040170200125857</v>
+        <v>0.9929259468280947</v>
       </c>
       <c r="O20">
-        <v>2.186677960565703</v>
+        <v>2.630250091395141</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.070997929609575</v>
+        <v>1.397599818925642</v>
       </c>
       <c r="C21">
-        <v>1.154789407240401</v>
+        <v>0.3666970103298581</v>
       </c>
       <c r="D21">
-        <v>0.3041182596350467</v>
+        <v>0.2466108259049946</v>
       </c>
       <c r="E21">
-        <v>0.2671052035283239</v>
+        <v>0.1950486998015961</v>
       </c>
       <c r="F21">
-        <v>1.152426460792682</v>
+        <v>1.201564253133057</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.2263607176878324</v>
+        <v>0.4555285925505395</v>
       </c>
       <c r="J21">
-        <v>0.3028549374320733</v>
+        <v>0.2047735471842742</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7060698992714265</v>
+        <v>0.9906486184260075</v>
       </c>
       <c r="O21">
-        <v>2.39792409845569</v>
+        <v>2.651996640992536</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.373587468424773</v>
+        <v>1.486918681282248</v>
       </c>
       <c r="C22">
-        <v>1.240396955276765</v>
+        <v>0.3919625013272139</v>
       </c>
       <c r="D22">
-        <v>0.3247176344351033</v>
+        <v>0.2515034802018619</v>
       </c>
       <c r="E22">
-        <v>0.28582942193664</v>
+        <v>0.1992154198121696</v>
       </c>
       <c r="F22">
-        <v>1.223784112092247</v>
+        <v>1.211608037269755</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>0.2326984435575028</v>
+        <v>0.4529092587716335</v>
       </c>
       <c r="J22">
-        <v>0.3246879943967684</v>
+        <v>0.2094243033143783</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7085384019831338</v>
+        <v>0.9895204448726389</v>
       </c>
       <c r="O22">
-        <v>2.542389249198266</v>
+        <v>2.667847928427165</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.211942789659361</v>
+        <v>1.439250657971343</v>
       </c>
       <c r="C23">
-        <v>1.194660615808402</v>
+        <v>0.3784809052398259</v>
       </c>
       <c r="D23">
-        <v>0.3136992275909307</v>
+        <v>0.2488857061321568</v>
       </c>
       <c r="E23">
-        <v>0.2758047834543831</v>
+        <v>0.1969846516558462</v>
       </c>
       <c r="F23">
-        <v>1.185452008637455</v>
+        <v>1.206186211408266</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.2292171754190058</v>
+        <v>0.4542794134584831</v>
       </c>
       <c r="J23">
-        <v>0.3129905064570693</v>
+        <v>0.20693338166042</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7071136239033393</v>
+        <v>0.9900896537945982</v>
       </c>
       <c r="O23">
-        <v>2.464663645838584</v>
+        <v>2.659237598996754</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.602706346315244</v>
+        <v>1.258655867698508</v>
       </c>
       <c r="C24">
-        <v>1.022366742266684</v>
+        <v>0.327356229340495</v>
       </c>
       <c r="D24">
-        <v>0.2724718889422775</v>
+        <v>0.2391140457328191</v>
       </c>
       <c r="E24">
-        <v>0.2384874030624715</v>
+        <v>0.1886879852870464</v>
       </c>
       <c r="F24">
-        <v>1.045455272775584</v>
+        <v>1.186996716676319</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.2181134824961468</v>
+        <v>0.4600790329071494</v>
       </c>
       <c r="J24">
-        <v>0.2696200693199842</v>
+        <v>0.1976910134091412</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7040015828758044</v>
+        <v>0.9929692582594782</v>
       </c>
       <c r="O24">
-        <v>2.183325599963439</v>
+        <v>2.629922260868454</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.950331139659227</v>
+        <v>1.063785789668316</v>
       </c>
       <c r="C25">
-        <v>0.837993315417549</v>
+        <v>0.2720846572629227</v>
       </c>
       <c r="D25">
-        <v>0.228914733698204</v>
+        <v>0.2288821935888024</v>
       </c>
       <c r="E25">
-        <v>0.1994100736928104</v>
+        <v>0.180064593882463</v>
       </c>
       <c r="F25">
-        <v>0.9040153232728585</v>
+        <v>1.169163066708492</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.2100584193493589</v>
+        <v>0.4676319549144665</v>
       </c>
       <c r="J25">
-        <v>0.2245203109849001</v>
+        <v>0.1881303834649231</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7050857103877703</v>
+        <v>0.9976259095982911</v>
       </c>
       <c r="O25">
-        <v>1.90396300649175</v>
+        <v>2.605309621831253</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_247/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_247/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9202686041625157</v>
+        <v>2.472591500528779</v>
       </c>
       <c r="C2">
-        <v>0.2312851940432097</v>
+        <v>0.7030242329474845</v>
       </c>
       <c r="D2">
-        <v>0.2216154181053156</v>
+        <v>0.1974744981813643</v>
       </c>
       <c r="E2">
-        <v>0.173995006164489</v>
+        <v>0.1714492826370346</v>
       </c>
       <c r="F2">
-        <v>1.158484340464028</v>
+        <v>0.8067141962894766</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
-        <v>0.4743025055241112</v>
+        <v>0.2070196427451094</v>
       </c>
       <c r="J2">
-        <v>0.1814400276531032</v>
+        <v>0.1924722299244905</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.002392765118174</v>
+        <v>0.709300628351329</v>
       </c>
       <c r="O2">
-        <v>2.593177007097438</v>
+        <v>1.715542360153194</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8229987116431516</v>
+        <v>2.149771234905586</v>
       </c>
       <c r="C3">
-        <v>0.2035736324707784</v>
+        <v>0.611829615264071</v>
       </c>
       <c r="D3">
-        <v>0.2168581183874068</v>
+        <v>0.1764909013983669</v>
       </c>
       <c r="E3">
-        <v>0.1700559920835083</v>
+        <v>0.1529164622772647</v>
       </c>
       <c r="F3">
-        <v>1.152771200007365</v>
+        <v>0.7444107525820058</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0.4795121132207214</v>
+        <v>0.2065455600841837</v>
       </c>
       <c r="J3">
-        <v>0.1771225843945246</v>
+        <v>0.1713459011993237</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.006460705725544</v>
+        <v>0.7141055539563723</v>
       </c>
       <c r="O3">
-        <v>2.588672475193846</v>
+        <v>1.597057263378218</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7632777456283009</v>
+        <v>1.951826409221752</v>
       </c>
       <c r="C4">
-        <v>0.18652978349877</v>
+        <v>0.5559082506057678</v>
       </c>
       <c r="D4">
-        <v>0.2140201439054294</v>
+        <v>0.163745615740396</v>
       </c>
       <c r="E4">
-        <v>0.1677234901444855</v>
+        <v>0.1417155222863933</v>
       </c>
       <c r="F4">
-        <v>1.150013388387933</v>
+        <v>0.7077597634083546</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0.4830496188176809</v>
+        <v>0.206969451717999</v>
       </c>
       <c r="J4">
-        <v>0.1745782619095451</v>
+        <v>0.1586274743204186</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.0093724869295</v>
+        <v>0.7179611671304045</v>
       </c>
       <c r="O4">
-        <v>2.587734933961769</v>
+        <v>1.528373191054584</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7389432360139949</v>
+        <v>1.871203401442841</v>
       </c>
       <c r="C5">
-        <v>0.1795773785316612</v>
+        <v>0.5331297059310032</v>
       </c>
       <c r="D5">
-        <v>0.2128846190596363</v>
+        <v>0.1585838551214778</v>
       </c>
       <c r="E5">
-        <v>0.1667946530482389</v>
+        <v>0.1371921620600638</v>
       </c>
       <c r="F5">
-        <v>1.149078023406872</v>
+        <v>0.6932008870713773</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0.4845762209298741</v>
+        <v>0.2073125610098998</v>
       </c>
       <c r="J5">
-        <v>0.1735682267089018</v>
+        <v>0.1535028838738768</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.010663349112768</v>
+        <v>0.7197522390553033</v>
       </c>
       <c r="O5">
-        <v>2.587811949816768</v>
+        <v>1.501340061650922</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7349026898970124</v>
+        <v>1.85781775910678</v>
       </c>
       <c r="C6">
-        <v>0.1784225307833083</v>
+        <v>0.529347707800838</v>
       </c>
       <c r="D6">
-        <v>0.2126973355315442</v>
+        <v>0.1577286043216048</v>
       </c>
       <c r="E6">
-        <v>0.1666417305556642</v>
+        <v>0.1364434398829033</v>
       </c>
       <c r="F6">
-        <v>1.148934085324953</v>
+        <v>0.6908053990982097</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0.4848348438394687</v>
+        <v>0.207379557468542</v>
       </c>
       <c r="J6">
-        <v>0.1734021293203085</v>
+        <v>0.1526553166425728</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.010883999664891</v>
+        <v>0.7200627060173659</v>
       </c>
       <c r="O6">
-        <v>2.58785244577922</v>
+        <v>1.496907109624374</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7629495507727597</v>
+        <v>1.950738966214942</v>
       </c>
       <c r="C7">
-        <v>0.1864360483954215</v>
+        <v>0.5556010218989229</v>
       </c>
       <c r="D7">
-        <v>0.2140047447752238</v>
+        <v>0.1636758763101653</v>
       </c>
       <c r="E7">
-        <v>0.1677108757105259</v>
+        <v>0.1416543569662565</v>
       </c>
       <c r="F7">
-        <v>1.150000010836536</v>
+        <v>0.7075619261217128</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0.48306986298509</v>
+        <v>0.2069734012924052</v>
       </c>
       <c r="J7">
-        <v>0.1745645317343403</v>
+        <v>0.15855813328794</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.009389473461695</v>
+        <v>0.7179844418383041</v>
       </c>
       <c r="O7">
-        <v>2.58773411474138</v>
+        <v>1.528004826351548</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.886730149374273</v>
+        <v>2.36121096805573</v>
       </c>
       <c r="C8">
-        <v>0.2217364363929164</v>
+        <v>0.6715600469900949</v>
       </c>
       <c r="D8">
-        <v>0.2199579240351284</v>
+        <v>0.1902087973260507</v>
       </c>
       <c r="E8">
-        <v>0.172618989144631</v>
+        <v>0.1650198557207574</v>
       </c>
       <c r="F8">
-        <v>1.156358676151896</v>
+        <v>0.7848827201472091</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0.4760283728502941</v>
+        <v>0.2067019689245555</v>
       </c>
       <c r="J8">
-        <v>0.1799292395575947</v>
+        <v>0.1851319635853912</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.003709555393868</v>
+        <v>0.7107646344912979</v>
       </c>
       <c r="O8">
-        <v>2.591243982878581</v>
+        <v>1.673803712319852</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.129435424059523</v>
+        <v>3.16958528486316</v>
       </c>
       <c r="C9">
-        <v>0.2907193810294757</v>
+        <v>0.8999476163916711</v>
       </c>
       <c r="D9">
-        <v>0.2322874718310004</v>
+        <v>0.2434792539969237</v>
       </c>
       <c r="E9">
-        <v>0.1829259138570762</v>
+        <v>0.2124346112700906</v>
       </c>
       <c r="F9">
-        <v>1.174788671659798</v>
+        <v>0.9505087155736902</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0.4649149978424667</v>
+        <v>0.2122918676744234</v>
       </c>
       <c r="J9">
-        <v>0.1912965171573262</v>
+        <v>0.2395139809641051</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.995849766821209</v>
+        <v>0.7041641081654149</v>
       </c>
       <c r="O9">
-        <v>2.612667522433043</v>
+        <v>1.995163757912763</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.307680207747296</v>
+        <v>3.767615008124665</v>
       </c>
       <c r="C10">
-        <v>0.3412427635975064</v>
+        <v>1.068991080617536</v>
       </c>
       <c r="D10">
-        <v>0.2417421073336783</v>
+        <v>0.2835823623188105</v>
       </c>
       <c r="E10">
-        <v>0.1909142272174336</v>
+        <v>0.2485137298703606</v>
       </c>
       <c r="F10">
-        <v>1.191979143481916</v>
+        <v>1.082631038887698</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0.4584025110626868</v>
+        <v>0.2207945747615909</v>
       </c>
       <c r="J10">
-        <v>0.2001673305943257</v>
+        <v>0.2812449866833759</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9920658500439572</v>
+        <v>0.7044766439466628</v>
       </c>
       <c r="O10">
-        <v>2.637325798671242</v>
+        <v>2.25761698363749</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.388742744771719</v>
+        <v>4.041060671006505</v>
       </c>
       <c r="C11">
-        <v>0.3641906446379153</v>
+        <v>1.146321552324935</v>
       </c>
       <c r="D11">
-        <v>0.2461286260973594</v>
+        <v>0.3020864652175419</v>
       </c>
       <c r="E11">
-        <v>0.1946386679148517</v>
+        <v>0.2652624082306971</v>
       </c>
       <c r="F11">
-        <v>1.200595791623613</v>
+        <v>1.145460105431155</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0.4558007153939982</v>
+        <v>0.2257757961357996</v>
       </c>
       <c r="J11">
-        <v>0.2043163326977293</v>
+        <v>0.3007098659213199</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9907751797901483</v>
+        <v>0.7058725412174311</v>
       </c>
       <c r="O11">
-        <v>2.650492070846184</v>
+        <v>2.383873914777297</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.419434611331553</v>
+        <v>4.144852201873334</v>
       </c>
       <c r="C12">
-        <v>0.3728750208108522</v>
+        <v>1.175680751531729</v>
       </c>
       <c r="D12">
-        <v>0.2478019101151716</v>
+        <v>0.3091355117832535</v>
       </c>
       <c r="E12">
-        <v>0.1960620151282697</v>
+        <v>0.2716588823668147</v>
       </c>
       <c r="F12">
-        <v>1.203973474671258</v>
+        <v>1.169684983661412</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0.4548675317125586</v>
+        <v>0.2278364716176853</v>
       </c>
       <c r="J12">
-        <v>0.2059038214718498</v>
+        <v>0.3081584240453026</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9903482356929914</v>
+        <v>0.7065933963100122</v>
       </c>
       <c r="O12">
-        <v>2.655758922751204</v>
+        <v>2.432774138229206</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.412824805813614</v>
+        <v>4.122487290112929</v>
       </c>
       <c r="C13">
-        <v>0.3710049353032332</v>
+        <v>1.169354118039109</v>
       </c>
       <c r="D13">
-        <v>0.2474409972292761</v>
+        <v>0.3076154339484134</v>
       </c>
       <c r="E13">
-        <v>0.1957548949851642</v>
+        <v>0.2702787834726479</v>
       </c>
       <c r="F13">
-        <v>1.203240923791597</v>
+        <v>1.164447784962505</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0.4550661912411513</v>
+        <v>0.2273846726352424</v>
       </c>
       <c r="J13">
-        <v>0.2055611999136033</v>
+        <v>0.3065506495472619</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9904374388548263</v>
+        <v>0.7064293964826192</v>
       </c>
       <c r="O13">
-        <v>2.654612098670441</v>
+        <v>2.422192432332054</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.391267887626498</v>
+        <v>4.049594524750205</v>
       </c>
       <c r="C14">
-        <v>0.3649052257147787</v>
+        <v>1.148735348460377</v>
       </c>
       <c r="D14">
-        <v>0.246266044147518</v>
+        <v>0.3026655273608299</v>
       </c>
       <c r="E14">
-        <v>0.1947555075551151</v>
+        <v>0.265787530727799</v>
       </c>
       <c r="F14">
-        <v>1.200871374868498</v>
+        <v>1.147444179645419</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0.4557228974114906</v>
+        <v>0.2259417482196966</v>
       </c>
       <c r="J14">
-        <v>0.2044466085696257</v>
+        <v>0.3013210567161622</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9907388168662408</v>
+        <v>0.7059279215457792</v>
       </c>
       <c r="O14">
-        <v>2.650919740319353</v>
+        <v>2.387874517055536</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.378062985703991</v>
+        <v>4.004978645370159</v>
       </c>
       <c r="C15">
-        <v>0.3611682511823915</v>
+        <v>1.136116060776317</v>
       </c>
       <c r="D15">
-        <v>0.2455479379304677</v>
+        <v>0.2996391660084612</v>
       </c>
       <c r="E15">
-        <v>0.1941450435770733</v>
+        <v>0.2630437353556729</v>
       </c>
       <c r="F15">
-        <v>1.199434906690925</v>
+        <v>1.137086621575705</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0.4561319340344205</v>
+        <v>0.2250810696875085</v>
       </c>
       <c r="J15">
-        <v>0.2037660190387527</v>
+        <v>0.2981281517677843</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9909314648552936</v>
+        <v>0.7056461617171266</v>
       </c>
       <c r="O15">
-        <v>2.648694691369883</v>
+        <v>2.366998853364805</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.302382002015122</v>
+        <v>3.749776386415988</v>
       </c>
       <c r="C16">
-        <v>0.3397423187672644</v>
+        <v>1.063947187297629</v>
       </c>
       <c r="D16">
-        <v>0.2414571512294117</v>
+        <v>0.2823786970011639</v>
       </c>
       <c r="E16">
-        <v>0.1906726447961375</v>
+        <v>0.2474264114886253</v>
       </c>
       <c r="F16">
-        <v>1.191432071721763</v>
+        <v>1.078583287880903</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0.4585798196457489</v>
+        <v>0.2204926411782324</v>
       </c>
       <c r="J16">
-        <v>0.1998984710504175</v>
+        <v>0.2799833000041332</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9921588536034562</v>
+        <v>0.7044116510321032</v>
       </c>
       <c r="O16">
-        <v>2.636504640428456</v>
+        <v>2.249512506158993</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.255947413905119</v>
+        <v>3.593605437780866</v>
       </c>
       <c r="C17">
-        <v>0.3265888439129014</v>
+        <v>1.019793899806018</v>
       </c>
       <c r="D17">
-        <v>0.2389694293152189</v>
+        <v>0.2718598382898421</v>
       </c>
       <c r="E17">
-        <v>0.1885656000786184</v>
+        <v>0.2379357452167028</v>
       </c>
       <c r="F17">
-        <v>1.186726761655933</v>
+        <v>1.043419675598543</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0.4601740488354764</v>
+        <v>0.2179727771379767</v>
       </c>
       <c r="J17">
-        <v>0.1975549666486103</v>
+        <v>0.2689810650405065</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9930220282897437</v>
+        <v>0.7039836795927812</v>
       </c>
       <c r="O17">
-        <v>2.629526214108353</v>
+        <v>2.179267138210662</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.22923750050893</v>
+        <v>3.503908966906408</v>
       </c>
       <c r="C18">
-        <v>0.3190199987059543</v>
+        <v>0.9944378421941735</v>
       </c>
       <c r="D18">
-        <v>0.2375466164435522</v>
+        <v>0.2658339512064458</v>
       </c>
       <c r="E18">
-        <v>0.1873622055931534</v>
+        <v>0.2325082285866813</v>
       </c>
       <c r="F18">
-        <v>1.184095361538581</v>
+        <v>1.023448447201929</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0.4611249535400361</v>
+        <v>0.2166272895246344</v>
       </c>
       <c r="J18">
-        <v>0.1962177390384028</v>
+        <v>0.262697623381257</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.993559045553809</v>
+        <v>0.7038547613806969</v>
       </c>
       <c r="O18">
-        <v>2.625695818934162</v>
+        <v>2.139503515999564</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.220193694058025</v>
+        <v>3.473560191887827</v>
       </c>
       <c r="C19">
-        <v>0.3164567604062256</v>
+        <v>0.9858591441386864</v>
       </c>
       <c r="D19">
-        <v>0.2370662635925669</v>
+        <v>0.2637977310011053</v>
       </c>
       <c r="E19">
-        <v>0.1869562215739364</v>
+        <v>0.2306757654905951</v>
       </c>
       <c r="F19">
-        <v>1.183217284922009</v>
+        <v>1.016728954172194</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0.4614527382894025</v>
+        <v>0.2161891519221726</v>
       </c>
       <c r="J19">
-        <v>0.1957668130865926</v>
+        <v>0.2605775983876981</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9937478373309006</v>
+        <v>0.7038308969262488</v>
       </c>
       <c r="O19">
-        <v>2.62443038981931</v>
+        <v>2.126147112342238</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.260890670250774</v>
+        <v>3.610216462362757</v>
       </c>
       <c r="C20">
-        <v>0.3279893996150633</v>
+        <v>1.024489883465293</v>
       </c>
       <c r="D20">
-        <v>0.2392334182016072</v>
+        <v>0.272977044770343</v>
       </c>
       <c r="E20">
-        <v>0.1887890168460871</v>
+        <v>0.2389427667546258</v>
       </c>
       <c r="F20">
-        <v>1.187219889452749</v>
+        <v>1.04713633306126</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0.4600008257883097</v>
+        <v>0.2182301704279261</v>
       </c>
       <c r="J20">
-        <v>0.1978033297983899</v>
+        <v>0.2701475810610674</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9929259468280947</v>
+        <v>0.7040170200125715</v>
       </c>
       <c r="O20">
-        <v>2.630250091395141</v>
+        <v>2.18667796056576</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.397599818925642</v>
+        <v>4.070997929609746</v>
       </c>
       <c r="C21">
-        <v>0.3666970103298581</v>
+        <v>1.154789407240287</v>
       </c>
       <c r="D21">
-        <v>0.2466108259049946</v>
+        <v>0.3041182596350183</v>
       </c>
       <c r="E21">
-        <v>0.1950486998015961</v>
+        <v>0.2671052035283239</v>
       </c>
       <c r="F21">
-        <v>1.201564253133057</v>
+        <v>1.152426460792668</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0.4555285925505395</v>
+        <v>0.2263607176878324</v>
       </c>
       <c r="J21">
-        <v>0.2047735471842742</v>
+        <v>0.3028549374321727</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9906486184260075</v>
+        <v>0.7060698992713981</v>
       </c>
       <c r="O21">
-        <v>2.651996640992536</v>
+        <v>2.39792409845569</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.486918681282248</v>
+        <v>4.373587468424773</v>
       </c>
       <c r="C22">
-        <v>0.3919625013272139</v>
+        <v>1.240396955276594</v>
       </c>
       <c r="D22">
-        <v>0.2515034802018619</v>
+        <v>0.3247176344354017</v>
       </c>
       <c r="E22">
-        <v>0.1992154198121696</v>
+        <v>0.2858294219366115</v>
       </c>
       <c r="F22">
-        <v>1.211608037269755</v>
+        <v>1.223784112092247</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0.4529092587716335</v>
+        <v>0.2326984435575064</v>
       </c>
       <c r="J22">
-        <v>0.2094243033143783</v>
+        <v>0.3246879943967116</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9895204448726389</v>
+        <v>0.7085384019831196</v>
       </c>
       <c r="O22">
-        <v>2.667847928427165</v>
+        <v>2.542389249198322</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.439250657971343</v>
+        <v>4.211942789659247</v>
       </c>
       <c r="C23">
-        <v>0.3784809052398259</v>
+        <v>1.194660615808175</v>
       </c>
       <c r="D23">
-        <v>0.2488857061321568</v>
+        <v>0.3136992275907744</v>
       </c>
       <c r="E23">
-        <v>0.1969846516558462</v>
+        <v>0.2758047834543902</v>
       </c>
       <c r="F23">
-        <v>1.206186211408266</v>
+        <v>1.185452008637441</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0.4542794134584831</v>
+        <v>0.2292171754190093</v>
       </c>
       <c r="J23">
-        <v>0.20693338166042</v>
+        <v>0.3129905064570551</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9900896537945982</v>
+        <v>0.7071136239032825</v>
       </c>
       <c r="O23">
-        <v>2.659237598996754</v>
+        <v>2.464663645838641</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.258655867698508</v>
+        <v>3.602706346315074</v>
       </c>
       <c r="C24">
-        <v>0.327356229340495</v>
+        <v>1.02236674226657</v>
       </c>
       <c r="D24">
-        <v>0.2391140457328191</v>
+        <v>0.2724718889423485</v>
       </c>
       <c r="E24">
-        <v>0.1886879852870464</v>
+        <v>0.2384874030624573</v>
       </c>
       <c r="F24">
-        <v>1.186996716676319</v>
+        <v>1.045455272775598</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0.4600790329071494</v>
+        <v>0.2181134824961504</v>
       </c>
       <c r="J24">
-        <v>0.1976910134091412</v>
+        <v>0.2696200693200694</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9929692582594782</v>
+        <v>0.7040015828758186</v>
       </c>
       <c r="O24">
-        <v>2.629922260868454</v>
+        <v>2.183325599963467</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.063785789668316</v>
+        <v>2.950331139659284</v>
       </c>
       <c r="C25">
-        <v>0.2720846572629227</v>
+        <v>0.8379933154176058</v>
       </c>
       <c r="D25">
-        <v>0.2288821935888024</v>
+        <v>0.2289147336982182</v>
       </c>
       <c r="E25">
-        <v>0.180064593882463</v>
+        <v>0.199410073692782</v>
       </c>
       <c r="F25">
-        <v>1.169163066708492</v>
+        <v>0.9040153232728585</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0.4676319549144665</v>
+        <v>0.2100584193493447</v>
       </c>
       <c r="J25">
-        <v>0.1881303834649231</v>
+        <v>0.2245203109848717</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9976259095982911</v>
+        <v>0.7050857103877703</v>
       </c>
       <c r="O25">
-        <v>2.605309621831253</v>
+        <v>1.90396300649175</v>
       </c>
     </row>
   </sheetData>
